--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="197">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="196">
   <si>
     <t>Table 24: GVC backward participation by sector</t>
   </si>
@@ -1457,11 +1454,9 @@
   <sheetData>
     <row r="1" spans="1:32" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1495,108 +1490,108 @@
     </row>
     <row r="2" spans="1:32" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="13">
         <v>26108.093631700001</v>
@@ -1691,10 +1686,10 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="16">
         <v>1058.6365261999999</v>
@@ -1789,10 +1784,10 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="20">
         <v>1128.9598234</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="20">
         <v>303.80308239999999</v>
@@ -1985,10 +1980,10 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="20">
         <v>1102.2942598</v>
@@ -2083,10 +2078,10 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="20">
         <v>900.70667270000001</v>
@@ -2181,10 +2176,10 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="20">
         <v>2148.2552420000002</v>
@@ -2279,10 +2274,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="20">
         <v>118444.514552963</v>
@@ -2377,10 +2372,10 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="16">
         <v>4273.1226045000003</v>
@@ -2475,10 +2470,10 @@
     </row>
     <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C12" s="23">
         <v>109.2994162</v>
@@ -2573,10 +2568,10 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="C13" s="27">
         <v>155577.68581186299</v>
@@ -2671,10 +2666,10 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C14" s="20">
         <v>244.26192699999999</v>
@@ -2769,10 +2764,10 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="20">
         <v>4084.9473966999999</v>
@@ -2867,10 +2862,10 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="C16" s="20">
         <v>250.33504830000001</v>
@@ -2965,10 +2960,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="C17" s="13">
         <v>869.05239759999995</v>
@@ -3063,10 +3058,10 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="C18" s="13">
         <v>4473.6396352000002</v>
@@ -3161,10 +3156,10 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C19" s="16">
         <v>2669.6462972999998</v>
@@ -3259,108 +3254,108 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>69</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="13">
         <v>4415.0798603000003</v>
@@ -3455,10 +3450,10 @@
     </row>
     <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C22" s="20">
         <v>152.05517660000001</v>
@@ -3553,10 +3548,10 @@
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="27">
         <v>17159.017738999999</v>
@@ -3651,108 +3646,108 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="C24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF24" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C25" s="20">
         <v>258.76454339999998</v>
@@ -3847,10 +3842,10 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C26" s="20">
         <v>290.82733990000003</v>
@@ -3945,10 +3940,10 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="C27" s="20">
         <v>2293.8280332999998</v>
@@ -4043,10 +4038,10 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C28" s="20">
         <v>6178.7980625839</v>
@@ -4141,10 +4136,10 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C29" s="20">
         <v>2348.7049747999999</v>
@@ -4239,10 +4234,10 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="20">
         <v>3506.5522507999999</v>
@@ -4337,10 +4332,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="20">
         <v>226.83276319999999</v>
@@ -4435,10 +4430,10 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="20">
         <v>770.41990820000001</v>
@@ -4533,10 +4528,10 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="C33" s="20">
         <v>56.376086270000002</v>
@@ -4631,206 +4626,206 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="C35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF35" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C36" s="20">
         <v>1530.7189784</v>
@@ -4925,10 +4920,10 @@
     </row>
     <row r="37" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C37" s="20">
         <v>1028.1531256000001</v>
@@ -5023,10 +5018,10 @@
     </row>
     <row r="38" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="27">
         <v>18489.976066453899</v>
@@ -5121,10 +5116,10 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="C39" s="13">
         <v>62122.572423600002</v>
@@ -5219,10 +5214,10 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C40" s="20">
         <v>22119.9892745</v>
@@ -5317,10 +5312,10 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="C41" s="13">
         <v>12052.499289990001</v>
@@ -5415,10 +5410,10 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>112</v>
       </c>
       <c r="C42" s="13">
         <v>1795.0821174</v>
@@ -5513,10 +5508,10 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="C43" s="20">
         <v>22716.570733</v>
@@ -5611,10 +5606,10 @@
     </row>
     <row r="44" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="C44" s="20">
         <v>12947.2277502</v>
@@ -5709,10 +5704,10 @@
     </row>
     <row r="45" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="27">
         <v>133753.94158869001</v>
@@ -5807,10 +5802,10 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C46" s="20">
         <v>590.67681319999997</v>
@@ -5905,10 +5900,10 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="20">
         <v>297.16603400000002</v>
@@ -6003,10 +5998,10 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="20">
         <v>260.29458140000003</v>
@@ -6101,10 +6096,10 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C49" s="20">
         <v>7150.7592789999999</v>
@@ -6199,10 +6194,10 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="C50" s="20">
         <v>117.3885006</v>
@@ -6297,10 +6292,10 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="C51" s="16">
         <v>5344.4522632999997</v>
@@ -6395,10 +6390,10 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="C52" s="20">
         <v>1485.7244538</v>
@@ -6493,108 +6488,108 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE53" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF53" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="C54" s="20">
         <v>948.33151380000004</v>
@@ -6689,10 +6684,10 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="C55" s="20">
         <v>731.47424120000005</v>
@@ -6787,10 +6782,10 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="C56" s="20">
         <v>566.61538059999998</v>
@@ -6885,10 +6880,10 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="C57" s="13">
         <v>32763.400686500001</v>
@@ -6983,10 +6978,10 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="C58" s="20">
         <v>2623.9531699999998</v>
@@ -7081,10 +7076,10 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="C59" s="20">
         <v>362.89767399999999</v>
@@ -7179,10 +7174,10 @@
     </row>
     <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="C60" s="16">
         <v>973.26968529999999</v>
@@ -7277,10 +7272,10 @@
     </row>
     <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="27">
         <v>54216.404276699999</v>
@@ -7375,10 +7370,10 @@
     </row>
     <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="33">
         <v>379197.02548270702</v>
@@ -7473,10 +7468,10 @@
     </row>
     <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="33">
         <v>19616244.773226101</v>
@@ -7571,10 +7566,10 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="37">
         <v>1056648.3145131699</v>
@@ -7669,10 +7664,10 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="40">
         <v>3477523.6882446399</v>
@@ -7767,10 +7762,10 @@
     </row>
     <row r="66" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43">
         <v>19995441.7987088</v>
@@ -7865,10 +7860,10 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="40">
         <v>73606.557730943896</v>
@@ -7963,10 +7958,10 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="40">
         <v>126364.50276206</v>
@@ -8061,10 +8056,10 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" s="40">
         <v>9208.7648567839005</v>
@@ -8159,10 +8154,10 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="40">
         <v>43493.944133899997</v>
@@ -8257,10 +8252,10 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="40">
         <v>54216.404276699999</v>
@@ -8355,10 +8350,10 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" s="40">
         <v>10106.747191053901</v>
@@ -8453,10 +8448,10 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="40">
         <v>166403.72822136301</v>
@@ -8551,10 +8546,10 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="40">
         <v>111633.95231419</v>
@@ -8649,10 +8644,10 @@
     </row>
     <row r="75" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="43">
         <v>27421.1500624</v>
@@ -8747,10 +8742,10 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" s="40">
         <v>1361013.1623527801</v>
@@ -8845,10 +8840,10 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C77" s="40">
         <v>625026.01503157895</v>
@@ -8943,10 +8938,10 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="40">
         <v>7906861.1142241601</v>
@@ -9041,10 +9036,10 @@
     </row>
     <row r="79" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C79" s="43">
         <v>14168058.892946901</v>
@@ -9139,10 +9134,10 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="40">
         <v>144599.42004229</v>
@@ -9237,10 +9232,10 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" s="40">
         <v>1077247.5725805601</v>
@@ -9335,10 +9330,10 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="40">
         <v>234597.60544041701</v>
@@ -9433,10 +9428,10 @@
     </row>
     <row r="83" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C83" s="43">
         <v>18538997.200645499</v>
@@ -9531,10 +9526,10 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C84" s="40">
         <v>17763.886409070001</v>
@@ -9629,10 +9624,10 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C85" s="40">
         <v>19793.7210691</v>
@@ -9727,10 +9722,10 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="40">
         <v>219037.181443184</v>
@@ -9825,10 +9820,10 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" s="40">
         <v>982665.56332838302</v>
@@ -9923,10 +9918,10 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="40">
         <v>141625.53772225301</v>
@@ -10021,10 +10016,10 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="40">
         <v>4065377.4235912301</v>
@@ -10119,10 +10114,10 @@
     </row>
     <row r="90" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" s="43">
         <v>14431943.7273791</v>
@@ -10217,10 +10212,10 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="40">
         <v>55400.156526669998</v>
@@ -10315,10 +10310,10 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" s="40">
         <v>33613.4213428</v>
@@ -10413,10 +10408,10 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C93" s="40">
         <v>4689.3219170000002</v>
@@ -10511,10 +10506,10 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C94" s="40">
         <v>437958.37947290001</v>
@@ -10609,10 +10604,10 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" s="40">
         <v>14483.8346633</v>
@@ -10707,10 +10702,10 @@
     </row>
     <row r="96" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C96" s="43">
         <v>106074.389970394</v>
@@ -10805,10 +10800,10 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C97" s="40">
         <v>118646.64793344399</v>
@@ -10903,10 +10898,10 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C98" s="40">
         <v>305667.03397479001</v>
@@ -11001,10 +10996,10 @@
     </row>
     <row r="99" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C99" s="43">
         <v>45305.889382369998</v>
@@ -11133,27 +11128,27 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
@@ -11161,27 +11156,27 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -11191,7 +11186,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -592,6 +592,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: World Development Report 2020 GVC Database, World Bank.</t>
   </si>
   <si>
@@ -604,88 +607,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -697,7 +622,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,15 +738,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1441,7 +1357,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF113"/>
+  <dimension ref="A1:AF114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11146,18 +11062,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
+      <c r="B108" s="51" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>191</v>
-      </c>
+    <row r="109" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -11170,25 +11086,27 @@
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: World Development Report 2020 GVC Database, World Bank.</t>
@@ -10232,94 +10232,94 @@
         <v>178</v>
       </c>
       <c r="C92" s="40">
-        <v>33613.4213428</v>
+        <v>33278.426183900003</v>
       </c>
       <c r="D92" s="40">
-        <v>10286.7164287415</v>
+        <v>10173.1830362854</v>
       </c>
       <c r="E92" s="40">
-        <v>3199.0943876981401</v>
+        <v>3139.8490783262</v>
       </c>
       <c r="F92" s="41">
-        <v>7087.6219617633797</v>
+        <v>7033.33387874031</v>
       </c>
       <c r="G92" s="40">
-        <v>112.73096118164101</v>
+        <v>112.038509887695</v>
       </c>
       <c r="H92" s="40">
-        <v>28.382001861572299</v>
+        <v>26.214395660400399</v>
       </c>
       <c r="I92" s="40">
-        <v>228.22669158935599</v>
+        <v>227.933174713135</v>
       </c>
       <c r="J92" s="40">
-        <v>139.972124694824</v>
+        <v>134.32270428466799</v>
       </c>
       <c r="K92" s="40">
-        <v>1383.6932408447301</v>
+        <v>1382.87836865234</v>
       </c>
       <c r="L92" s="40">
-        <v>98.088541839599699</v>
+        <v>96.675406463623105</v>
       </c>
       <c r="M92" s="40">
-        <v>291.69920223617601</v>
+        <v>290.50477242660497</v>
       </c>
       <c r="N92" s="40">
-        <v>143.813401069641</v>
+        <v>143.26206201934801</v>
       </c>
       <c r="O92" s="40">
-        <v>62.0045295848847</v>
+        <v>60.903076093673697</v>
       </c>
       <c r="P92" s="40">
-        <v>18.684417610168499</v>
+        <v>14.4088487625122</v>
       </c>
       <c r="Q92" s="40">
-        <v>33.282512474060098</v>
+        <v>31.5168601303101</v>
       </c>
       <c r="R92" s="40">
-        <v>27.211632457733199</v>
+        <v>26.048111461639401</v>
       </c>
       <c r="S92" s="40">
-        <v>1.6088589105606099</v>
+        <v>1.2577057428359999</v>
       </c>
       <c r="T92" s="40">
-        <v>28.935430194377901</v>
+        <v>26.816469256877902</v>
       </c>
       <c r="U92" s="40">
-        <v>24.7708768501282</v>
+        <v>20.344684467315702</v>
       </c>
       <c r="V92" s="40">
-        <v>44.2459086351395</v>
+        <v>42.368897892951999</v>
       </c>
       <c r="W92" s="40">
-        <v>11.6771630768776</v>
+        <v>10.1165103669167</v>
       </c>
       <c r="X92" s="40">
-        <v>63.7217997131348</v>
+        <v>59.948124420166003</v>
       </c>
       <c r="Y92" s="40">
-        <v>259.25563054656999</v>
+        <v>252.80523845672599</v>
       </c>
       <c r="Z92" s="40">
-        <v>32.687923858642598</v>
+        <v>31.041369781494101</v>
       </c>
       <c r="AA92" s="40">
-        <v>0.74557233926653999</v>
+        <v>0.62692635843157996</v>
       </c>
       <c r="AB92" s="40">
-        <v>15.2242389209271</v>
+        <v>13.2662539355755</v>
       </c>
       <c r="AC92" s="40">
-        <v>46.4871930465698</v>
+        <v>44.039267265319801</v>
       </c>
       <c r="AD92" s="40">
-        <v>27.342796913147001</v>
+        <v>22.531179237365698</v>
       </c>
       <c r="AE92" s="40">
-        <v>3.8132096605300898</v>
+        <v>2.6906339769363399</v>
       </c>
       <c r="AF92" s="41">
-        <v>70.788527587890599</v>
+        <v>65.2895266113281</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab24.xlsx
+++ b/AfDD_2022_Annex_Table_Tab24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
     <t>Source: World Development Report 2020 GVC Database, World Bank.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -11104,7 +11104,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
